--- a/Proj 3 Plan.xlsx
+++ b/Proj 3 Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
   <si>
     <t>Technical Requirements</t>
   </si>
@@ -639,9 +639,6 @@
     <t>set up mongodb files</t>
   </si>
   <si>
-    <t>curl requests</t>
-  </si>
-  <si>
     <t>curl create</t>
   </si>
   <si>
@@ -900,9 +897,6 @@
     <t>decide MVP</t>
   </si>
   <si>
-    <t>meeting tonight 6-8 @ Lisa's</t>
-  </si>
-  <si>
     <t>review bootstrap templates</t>
   </si>
   <si>
@@ -991,6 +985,36 @@
   </si>
   <si>
     <t>Open, artifacts attached</t>
+  </si>
+  <si>
+    <t>curl requests client to api</t>
+  </si>
+  <si>
+    <t>donsignin</t>
+  </si>
+  <si>
+    <t>meeting tonight 6-8 @ Don's</t>
+  </si>
+  <si>
+    <t>scripts/auth/api, events, js</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>one of us</t>
+  </si>
+  <si>
+    <t>test sign up from UI</t>
+  </si>
+  <si>
+    <t>test sign out from UI</t>
+  </si>
+  <si>
+    <t>test sign in from UI</t>
+  </si>
+  <si>
+    <t>test change password from UI</t>
   </si>
 </sst>
 </file>
@@ -2016,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,7 +2067,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -2061,7 +2085,7 @@
         <v>91</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -2079,7 +2103,7 @@
         <v>92</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2209,7 +2233,7 @@
         <v>111</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I12" s="44" t="s">
         <v>101</v>
@@ -2220,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39" t="s">
@@ -2230,11 +2254,11 @@
         <v>42870</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="41"/>
     </row>
@@ -2243,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
@@ -2253,14 +2277,14 @@
         <v>42870</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2268,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
@@ -2278,11 +2302,11 @@
         <v>42870</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -2291,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
@@ -2301,11 +2325,11 @@
         <v>42870</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="32"/>
     </row>
@@ -2314,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
@@ -2324,11 +2348,11 @@
         <v>42870</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" s="32"/>
       <c r="L17" s="17"/>
@@ -2338,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
@@ -2348,11 +2372,11 @@
         <v>42870</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2361,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
@@ -2371,13 +2395,13 @@
         <v>42870</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" s="32"/>
     </row>
@@ -2398,10 +2422,10 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2421,10 +2445,10 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,11 +2466,11 @@
         <v>42870</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -2465,11 +2489,11 @@
         <v>42870</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I23" s="32"/>
     </row>
@@ -2488,11 +2512,11 @@
         <v>42870</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I24" s="32"/>
     </row>
@@ -2501,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
@@ -2511,11 +2535,11 @@
         <v>42870</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I25" s="32"/>
     </row>
@@ -2524,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27" t="s">
@@ -2534,11 +2558,11 @@
         <v>42870</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I26" s="32"/>
     </row>
@@ -2547,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27" t="s">
@@ -2605,7 +2629,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>83</v>
@@ -2624,7 +2648,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>83</v>
@@ -2643,7 +2667,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>83</v>
@@ -2656,12 +2680,12 @@
       <c r="H32" s="27"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>20</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27" t="s">
@@ -2670,25 +2694,52 @@
       <c r="E33" s="28">
         <v>42870</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="F33" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="16" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="16" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="27" t="s">
-        <v>231</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
@@ -2698,19 +2749,19 @@
         <v>42870</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>83</v>
@@ -2718,11 +2769,17 @@
       <c r="E38" s="28">
         <v>42870</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="27" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
@@ -2736,10 +2793,10 @@
       <c r="H39" s="27"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="27" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
@@ -2748,18 +2805,22 @@
       <c r="E40" s="28">
         <v>42870</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="27" t="s">
+        <v>207</v>
+      </c>
       <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>82</v>
@@ -2772,11 +2833,9 @@
       <c r="H41" s="27"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
-      <c r="B42" s="27" t="s">
-        <v>124</v>
-      </c>
+      <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
         <v>82</v>
@@ -2789,7 +2848,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27" t="s">
@@ -2805,10 +2864,10 @@
       <c r="G43" s="28"/>
       <c r="H43" s="27"/>
       <c r="I43" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27" t="s">
@@ -2825,9 +2884,11 @@
       <c r="H44" s="27"/>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="C45" s="27" t="s">
         <v>121</v>
       </c>
@@ -2842,10 +2903,10 @@
       <c r="H45" s="27"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="27" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
@@ -2859,7 +2920,7 @@
       <c r="H46" s="27"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="27" t="s">
         <v>129</v>
@@ -2876,23 +2937,30 @@
       <c r="H47" s="27"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E48" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F48" s="27"/>
+        <v>42870</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I48" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,16 +2970,20 @@
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F49" s="27"/>
+        <v>42870</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I49" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2921,35 +2993,43 @@
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E50" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F50" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I50" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="27" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F51" s="27"/>
+        <v>42870</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="H51" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I51" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2959,16 +3039,20 @@
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F52" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="27"/>
+      <c r="H52" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I52" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2978,16 +3062,20 @@
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E53" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F53" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="27"/>
+      <c r="H53" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I53" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2997,16 +3085,20 @@
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F54" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I54" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3016,16 +3108,20 @@
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E55" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F55" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I55" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3035,16 +3131,20 @@
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56" s="28">
-        <v>42871</v>
-      </c>
-      <c r="F56" s="28"/>
+        <v>42870</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I56" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,17 +3153,21 @@
         <v>146</v>
       </c>
       <c r="C57" s="27"/>
-      <c r="D57" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F57" s="28"/>
+      <c r="D57" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I57" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3072,397 +3176,451 @@
         <v>147</v>
       </c>
       <c r="C58" s="27"/>
-      <c r="D58" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F58" s="28"/>
+      <c r="D58" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="I58" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="27" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="C59" s="27"/>
-      <c r="D59" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="D59" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="27"/>
-      <c r="I59" s="32" t="s">
-        <v>221</v>
-      </c>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="27" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60" s="28">
         <v>42870</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="27"/>
-      <c r="I60" s="32"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="27" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E61" s="28">
         <v>42870</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="27"/>
-      <c r="I61" s="32"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="27" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="28">
         <v>42870</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="27"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="32"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="32"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="32"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E71" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="32"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="32"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="32"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
-      <c r="B74" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="33"/>
+      <c r="B74" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="28"/>
+      <c r="H74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
-      <c r="B75" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29"/>
+      <c r="B75" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="27"/>
       <c r="I75" s="32"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
-      <c r="B76" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="29"/>
+      <c r="B76" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="27"/>
       <c r="I76" s="32"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
-      <c r="B77" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="30">
-        <v>42873</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="B77" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="32"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="31"/>
+      <c r="B79" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="28">
+        <v>42870</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="31"/>
+      <c r="B80" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="31"/>
+      <c r="B81" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="31"/>
+      <c r="B82" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="31"/>
+      <c r="B83" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="31"/>
+      <c r="B84" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="31"/>
+      <c r="B85" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="31"/>
+      <c r="B86" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="30">
+        <v>42871</v>
+      </c>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="31"/>
+      <c r="B87" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="30">
+        <v>42872</v>
+      </c>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="31"/>
+      <c r="B88" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="30">
+        <v>42872</v>
+      </c>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="31"/>
+      <c r="B89" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="30">
+        <v>42872</v>
+      </c>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="33"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="31"/>
+      <c r="B90" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="30">
+        <v>42872</v>
+      </c>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="31"/>
+      <c r="B91" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="30">
+        <v>42872</v>
+      </c>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="31"/>
+      <c r="B92" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29" t="s">
+      <c r="C92" s="29"/>
+      <c r="D92" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E92" s="30">
         <v>42873</v>
       </c>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="32"/>
-    </row>
-    <row r="79" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35" t="s">
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="32"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31"/>
+      <c r="B93" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="30">
+        <v>42873</v>
+      </c>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E94" s="36">
         <v>42874</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="37"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,10 +3639,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -3492,24 +3650,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
         <v>240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3533,51 +3691,51 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="68"/>
     </row>
@@ -3587,88 +3745,88 @@
     </row>
     <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="75"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="64"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="66"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="66"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="66"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="66"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="66"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3677,16 +3835,16 @@
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3699,42 +3857,42 @@
     </row>
     <row r="28" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="75"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="64"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" s="66"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="66"/>
     </row>
     <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3743,61 +3901,61 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="71"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="51"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" s="51"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="51"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="51"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" s="51"/>
     </row>
     <row r="44" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="54"/>
     </row>
@@ -3819,35 +3977,35 @@
     </row>
     <row r="49" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="75"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="51"/>
     </row>
     <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B53" s="54"/>
     </row>
@@ -4057,7 +4215,7 @@
         <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>35</v>
@@ -4068,10 +4226,10 @@
         <v>42867</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>36</v>
@@ -4085,7 +4243,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>37</v>
@@ -4099,7 +4257,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>38</v>

--- a/Proj 3 Plan.xlsx
+++ b/Proj 3 Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="259">
   <si>
     <t>Technical Requirements</t>
   </si>
@@ -624,12 +624,6 @@
     <t>routes</t>
   </si>
   <si>
-    <t>controller</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>curl get all</t>
   </si>
   <si>
@@ -999,9 +993,6 @@
     <t>scripts/auth/api, events, js</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>one of us</t>
   </si>
   <si>
@@ -1015,6 +1006,39 @@
   </si>
   <si>
     <t>test change password from UI</t>
+  </si>
+  <si>
+    <t>finalize ERD</t>
+  </si>
+  <si>
+    <t>finalize user stories</t>
+  </si>
+  <si>
+    <t>finalize wireframe</t>
+  </si>
+  <si>
+    <t>upload ERD, user stories, wireframs</t>
+  </si>
+  <si>
+    <t>design schema</t>
+  </si>
+  <si>
+    <t>data types, validations, editables, virtuals</t>
+  </si>
+  <si>
+    <t>controller surveys</t>
+  </si>
+  <si>
+    <t>controller questions</t>
+  </si>
+  <si>
+    <t>ref Surveys</t>
+  </si>
+  <si>
+    <t>model surveys (also schema)</t>
+  </si>
+  <si>
+    <t>model questions (also schema)</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1513,9 +1537,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1932,101 +1953,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="55">
+      <c r="A2" s="54">
         <v>42867</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>42868</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>42869</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>42870</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>42871</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>42872</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>42873</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>42874</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2040,1587 +2061,1877 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="16"/>
-    <col min="2" max="2" width="35" style="16" customWidth="1"/>
-    <col min="3" max="3" width="46" style="16" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="16"/>
-    <col min="9" max="9" width="46.33203125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="35" style="15" customWidth="1"/>
+    <col min="3" max="3" width="46" style="15" customWidth="1"/>
+    <col min="4" max="8" width="10.83203125" style="15"/>
+    <col min="9" max="9" width="46.33203125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>42867</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>42868</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
-        <v>42867</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>42869</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>42870</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>42871</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>42872</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>42873</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>42874</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>42868</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>42869</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>42870</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>42871</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>42872</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>42873</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>42874</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L10" s="17"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="37">
+        <v>0</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="39">
+        <v>42870</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="30">
+        <v>3</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>5</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="30">
+        <v>6</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>7</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="30">
+        <v>8</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="30">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
+        <v>11</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="27">
         <v>42870</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39" t="s">
+      <c r="F24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="30">
+        <v>12</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
+        <v>13</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="30">
+        <v>14</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="30">
+        <v>15</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="30">
+        <v>16</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
+        <v>18</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
+        <v>19</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="30">
+        <v>20</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
+        <v>21</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="30">
+        <v>22</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="30">
+        <v>23</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="30">
+        <v>24</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>25</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="30">
+        <v>26</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
+        <v>27</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
+        <v>28</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="30">
+        <v>29</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>30</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="30">
+        <v>31</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="30">
+        <v>32</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="30">
+        <v>33</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
+        <v>34</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="30">
+        <v>35</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>36</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>37</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="30">
+        <v>38</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="30">
+        <v>39</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="30">
+        <v>40</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="30">
+        <v>41</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="30">
+        <v>42</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="27">
+        <v>42870</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="30">
+        <v>43</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="28">
+      <c r="C56" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="30">
+        <v>44</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="30">
+        <v>45</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="30">
+        <v>46</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="30">
+        <v>47</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="30">
+        <v>48</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="30">
+        <v>49</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="30">
+        <v>50</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="30">
+        <v>51</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="30">
+        <v>52</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="30">
+        <v>53</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="30">
+        <v>54</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="30">
+        <v>55</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="30">
+        <v>56</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="30">
+        <v>57</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="27">
         <v>42870</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>2</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="30">
+        <v>58</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="27">
         <v>42870</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
-        <v>3</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="30">
+        <v>59</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="27">
         <v>42870</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>4</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="30">
+        <v>60</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="27">
         <v>42870</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
-        <v>5</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="30">
+        <v>61</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="27">
         <v>42870</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
-        <v>6</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
-        <v>7</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
-        <v>8</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
-        <v>9</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
-        <v>10</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
-        <v>11</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
-        <v>12</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
-        <v>13</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
-        <v>14</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
-        <v>15</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
-        <v>16</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
-        <v>17</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
-        <v>18</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
-        <v>19</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
-        <v>20</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="27" t="s">
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="30">
+        <v>62</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E75" s="29">
         <v>42871</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27" t="s">
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="30">
+        <v>63</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E76" s="29">
         <v>42871</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="27" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="30">
+        <v>64</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E77" s="29">
         <v>42871</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="27" t="s">
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="30">
+        <v>65</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E78" s="29">
         <v>42871</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="30">
+        <v>66</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E79" s="29">
         <v>42871</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="30">
+        <v>67</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E80" s="29">
         <v>42871</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27" t="s">
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="30">
+        <v>68</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E81" s="29">
         <v>42871</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E75" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="32"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="32"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="32"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E78" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="32"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="28">
-        <v>42870</v>
-      </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="32"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E80" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E81" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="32"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="32"/>
+      <c r="A82" s="30">
+        <v>69</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="A83" s="30">
+        <v>70</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
       <c r="H83" s="29"/>
-      <c r="I83" s="32"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
+      <c r="A84" s="30">
+        <v>71</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E85" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="32"/>
+      <c r="A85" s="30">
+        <v>72</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E86" s="30">
-        <v>42871</v>
-      </c>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="32"/>
+      <c r="A86" s="30">
+        <v>73</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="32"/>
+      <c r="A87" s="30">
+        <v>74</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="29">
+        <v>42873</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="31"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E88" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="32"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E89" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E90" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="32"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E91" s="30">
-        <v>42872</v>
-      </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="32"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="29" t="s">
+      <c r="A88" s="30">
+        <v>75</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29" t="s">
+      <c r="C88" s="28"/>
+      <c r="D88" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E88" s="29">
         <v>42873</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="32"/>
-    </row>
-    <row r="93" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="35" t="s">
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="33">
+        <v>76</v>
+      </c>
+      <c r="B89" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E93" s="30">
-        <v>42873</v>
-      </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="32"/>
-    </row>
-    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35" t="s">
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E89" s="35">
         <v>42874</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="37"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3639,10 +3950,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -3650,24 +3961,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3690,327 +4001,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="63"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="65"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="65"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="65"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="65"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="65"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="67"/>
+    </row>
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+    </row>
+    <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="74"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="63"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="65"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="65"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="65"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="65"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="65"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="65"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="65"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+    </row>
+    <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="74"/>
+    </row>
+    <row r="25" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+    </row>
+    <row r="27" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+    </row>
+    <row r="28" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="74"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="63"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="65"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="65"/>
+    </row>
+    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="70"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="50"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="50"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="50"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="50"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="50"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="50"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="50"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="50"/>
+    </row>
+    <row r="44" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="64"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="66"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="68"/>
-    </row>
-    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-    </row>
-    <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="75"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="64"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="66"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="66"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="66"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="66"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="66"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="B44" s="53"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+    </row>
+    <row r="48" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+    </row>
+    <row r="49" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="74"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="50"/>
+    </row>
+    <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="66"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="66"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-    </row>
-    <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="75"/>
-    </row>
-    <row r="25" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-    </row>
-    <row r="27" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-    </row>
-    <row r="28" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="75"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="64"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="66"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="66"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="71"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="51"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="51"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="51"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="51"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="51"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="51"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="51"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="51"/>
-    </row>
-    <row r="44" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="54"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-    </row>
-    <row r="48" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-    </row>
-    <row r="49" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="75"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="51"/>
-    </row>
-    <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="53"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4208,28 +4519,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>42867</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>42867</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>36</v>
@@ -4243,7 +4554,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>37</v>
@@ -4257,7 +4568,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>38</v>

--- a/Proj 3 Plan.xlsx
+++ b/Proj 3 Plan.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="31640" windowHeight="19360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="31640" windowHeight="19360" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="High Level Timeline" sheetId="3" r:id="rId1"/>
     <sheet name="Detailed Plan" sheetId="4" r:id="rId2"/>
     <sheet name="Issues" sheetId="9" r:id="rId3"/>
-    <sheet name="User Stories" sheetId="7" r:id="rId4"/>
-    <sheet name="ERD - data" sheetId="8" r:id="rId5"/>
-    <sheet name="Requirements" sheetId="1" r:id="rId6"/>
-    <sheet name="Decisions" sheetId="5" r:id="rId7"/>
-    <sheet name="Standups" sheetId="6" r:id="rId8"/>
-    <sheet name="README Requirements" sheetId="2" r:id="rId9"/>
+    <sheet name="User Stories-prelim" sheetId="7" r:id="rId4"/>
+    <sheet name="User Stories-final" sheetId="11" r:id="rId5"/>
+    <sheet name="1-1" sheetId="10" r:id="rId6"/>
+    <sheet name="ERD - data" sheetId="8" r:id="rId7"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId8"/>
+    <sheet name="Decisions" sheetId="5" r:id="rId9"/>
+    <sheet name="Standups" sheetId="6" r:id="rId10"/>
+    <sheet name="README Requirements" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="268">
   <si>
     <t>Technical Requirements</t>
   </si>
@@ -747,9 +749,6 @@
     <t>As a creator, I want to delete a survey.</t>
   </si>
   <si>
-    <t>As a creator, I want to update my survey before any takers have answered my survey.</t>
-  </si>
-  <si>
     <t>As a creator, I want to update my survey after any takers have answered my survey.</t>
   </si>
   <si>
@@ -774,9 +773,6 @@
     <t>As a user, I want to see all available surveys.</t>
   </si>
   <si>
-    <t>Creator questions</t>
-  </si>
-  <si>
     <t>Takers</t>
   </si>
   <si>
@@ -813,9 +809,6 @@
     <t>Do we need to CRUD everything?</t>
   </si>
   <si>
-    <t>As a creator, I do not want to be able to answer questions to my survey.</t>
-  </si>
-  <si>
     <t>As a creator, I want to update the name of my survey.</t>
   </si>
   <si>
@@ -843,9 +836,6 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>meet with Chris</t>
-  </si>
-  <si>
     <t>take ERD, user stories, wireframes, plan</t>
   </si>
   <si>
@@ -921,9 +911,6 @@
     <t>agreed</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>An active survey is a survey that exists in the database.</t>
   </si>
   <si>
@@ -1039,6 +1026,48 @@
   </si>
   <si>
     <t>model questions (also schema)</t>
+  </si>
+  <si>
+    <t>1:1 Questions with Ben Adamski</t>
+  </si>
+  <si>
+    <t>Discuss user stories</t>
+  </si>
+  <si>
+    <t>Discuss url - what does it mean to meet that requirement</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>As a creator, I want to update my survey name before any takers have answered my survey (as confirmed with Ben and Toni)</t>
+  </si>
+  <si>
+    <t>yes per 1:1</t>
+  </si>
+  <si>
+    <t>As a creator, I do not want to be able to answer questions to my own survey.</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>all together</t>
+  </si>
+  <si>
+    <t>meet with Ben A. and Toni</t>
+  </si>
+  <si>
+    <t>not enough info yet</t>
+  </si>
+  <si>
+    <t>animation - optional</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,8 +1180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1500,12 +1535,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1661,8 +1782,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2059,12 +2187,129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="71.83203125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showRuler="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2333,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -2106,7 +2351,7 @@
         <v>91</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -2124,7 +2369,7 @@
         <v>92</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2254,7 +2499,7 @@
         <v>111</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>101</v>
@@ -2265,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
@@ -2279,7 +2524,7 @@
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I13" s="40"/>
     </row>
@@ -2288,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
@@ -2298,14 +2543,14 @@
         <v>42870</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2313,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
@@ -2323,11 +2568,11 @@
         <v>42870</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I15" s="31"/>
     </row>
@@ -2336,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
@@ -2346,11 +2591,11 @@
         <v>42870</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I16" s="31"/>
     </row>
@@ -2359,7 +2604,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26" t="s">
@@ -2369,11 +2614,11 @@
         <v>42870</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I17" s="31"/>
       <c r="L17" s="16"/>
@@ -2383,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
@@ -2393,11 +2638,11 @@
         <v>42870</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I18" s="31"/>
     </row>
@@ -2406,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="s">
@@ -2416,13 +2661,13 @@
         <v>42870</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I19" s="31"/>
     </row>
@@ -2443,10 +2688,10 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2466,10 +2711,10 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,11 +2732,11 @@
         <v>42870</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -2510,11 +2755,11 @@
         <v>42870</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I23" s="31"/>
     </row>
@@ -2533,11 +2778,11 @@
         <v>42870</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I24" s="31"/>
     </row>
@@ -2546,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
@@ -2556,11 +2801,11 @@
         <v>42870</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I25" s="31"/>
     </row>
@@ -2569,7 +2814,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26" t="s">
@@ -2579,11 +2824,11 @@
         <v>42870</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I26" s="31"/>
     </row>
@@ -2592,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
@@ -2706,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26" t="s">
@@ -2716,13 +2961,13 @@
         <v>42870</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I33" s="31"/>
     </row>
@@ -2731,7 +2976,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
@@ -2741,11 +2986,11 @@
         <v>42870</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I34" s="31"/>
     </row>
@@ -2754,7 +2999,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26" t="s">
@@ -2764,11 +3009,11 @@
         <v>42870</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I35" s="31"/>
     </row>
@@ -2777,7 +3022,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26" t="s">
@@ -2789,7 +3034,7 @@
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I36" s="31"/>
     </row>
@@ -2798,7 +3043,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
@@ -2808,14 +3053,14 @@
         <v>42870</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2823,7 +3068,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26" t="s">
@@ -2837,7 +3082,7 @@
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I38" s="31"/>
     </row>
@@ -2846,7 +3091,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26" t="s">
@@ -2858,7 +3103,7 @@
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I39" s="31"/>
     </row>
@@ -2896,17 +3141,17 @@
         <v>42870</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2924,14 +3169,14 @@
         <v>42870</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2949,14 +3194,14 @@
         <v>42870</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2974,14 +3219,14 @@
         <v>42870</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2999,14 +3244,14 @@
         <v>42870</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3024,14 +3269,14 @@
         <v>42870</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3049,14 +3294,14 @@
         <v>42870</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3074,14 +3319,14 @@
         <v>42870</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3099,14 +3344,14 @@
         <v>42870</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3124,14 +3369,14 @@
         <v>42870</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3149,14 +3394,14 @@
         <v>42870</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3164,7 +3409,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26" t="s">
@@ -3174,11 +3419,11 @@
         <v>42870</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I52" s="31"/>
     </row>
@@ -3187,7 +3432,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
@@ -3197,11 +3442,11 @@
         <v>42870</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I53" s="31"/>
     </row>
@@ -3210,7 +3455,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26" t="s">
@@ -3220,11 +3465,11 @@
         <v>42870</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I54" s="31"/>
     </row>
@@ -3233,7 +3478,7 @@
         <v>42</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26" t="s">
@@ -3243,11 +3488,11 @@
         <v>42870</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -3256,10 +3501,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>82</v>
@@ -3268,11 +3513,11 @@
         <v>42871</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -3281,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26" t="s">
@@ -3291,10 +3536,12 @@
         <v>42871</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="26" t="s">
+        <v>210</v>
+      </c>
       <c r="I57" s="31"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3302,7 +3549,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26" t="s">
@@ -3312,10 +3559,12 @@
         <v>42871</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G58" s="27"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="I58" s="31"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3323,7 +3572,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26" t="s">
@@ -3333,18 +3582,20 @@
         <v>42871</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="31"/>
+      <c r="I59" s="31" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>47</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26" t="s">
@@ -3354,7 +3605,7 @@
         <v>42871</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="26"/>
@@ -3365,7 +3616,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26" t="s">
@@ -3375,12 +3626,12 @@
         <v>42871</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3398,7 +3649,7 @@
         <v>42871</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -3419,7 +3670,7 @@
         <v>42871</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="26"/>
@@ -3431,7 +3682,7 @@
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>82</v>
@@ -3440,7 +3691,7 @@
         <v>42871</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="26"/>
@@ -3454,7 +3705,7 @@
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>82</v>
@@ -3463,7 +3714,7 @@
         <v>42871</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="26"/>
@@ -3475,7 +3726,7 @@
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>82</v>
@@ -3484,7 +3735,7 @@
         <v>42871</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="26"/>
@@ -3498,7 +3749,7 @@
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>82</v>
@@ -3507,12 +3758,12 @@
         <v>42871</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="26"/>
       <c r="I67" s="31" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3691,7 +3942,7 @@
         <v>64</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="28" t="s">
@@ -3950,10 +4201,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -3961,24 +4212,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3988,10 +4239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showRuler="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4002,51 +4253,51 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="65"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B4" s="65"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="65"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" s="65"/>
     </row>
     <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="67"/>
     </row>
@@ -4055,8 +4306,8 @@
       <c r="B9" s="72"/>
     </row>
     <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>164</v>
+      <c r="A10" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B10" s="74"/>
     </row>
@@ -4086,242 +4337,223 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="65"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="65"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>219</v>
+        <v>167</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>219</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B18" s="65"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B19" s="65"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="65"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>219</v>
-      </c>
+    <row r="20" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="76"/>
     </row>
     <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>219</v>
-      </c>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
     </row>
     <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-    </row>
-    <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A23" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="74"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="74"/>
-    </row>
-    <row r="25" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>219</v>
-      </c>
+      <c r="B24" s="63"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="65"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-    </row>
-    <row r="27" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-    </row>
+      <c r="A26" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="74"/>
+      <c r="A28" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="69"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="63"/>
+      <c r="A29" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="65"/>
+        <v>158</v>
+      </c>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>219</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B31" s="50"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="65"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+        <v>176</v>
+      </c>
+      <c r="B32" s="50"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="50"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="50"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="70"/>
+      <c r="A35" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="50"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B36" s="50"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B37" s="50"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B38" s="50"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="50"/>
+        <v>155</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="50"/>
+        <v>262</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="50"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="50"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="50"/>
-    </row>
-    <row r="44" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="53"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="73"/>
       <c r="B47" s="73"/>
     </row>
     <row r="48" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-    </row>
-    <row r="49" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
+      <c r="A48" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="74"/>
+      <c r="B49" s="70" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>219</v>
+      <c r="A50" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="50"/>
-    </row>
-    <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4329,6 +4561,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="108.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+    </row>
+    <row r="10" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+    </row>
+    <row r="23" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4342,7 +4824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -4446,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -4537,7 +5019,7 @@
         <v>42867</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>147</v>
@@ -4741,121 +5223,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="71.83203125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Proj 3 Plan.xlsx
+++ b/Proj 3 Plan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="269">
   <si>
     <t>Technical Requirements</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>animation - optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4562,10 +4565,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4573,80 +4576,83 @@
     <col min="1" max="1" width="108.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="79" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
     </row>
-    <row r="10" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="79" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>166</v>
       </c>
